--- a/alder grupper.xlsx
+++ b/alder grupper.xlsx
@@ -2196,8 +2196,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="7e3b12c339c1fc16476a95c5bedc287e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7561b06b2475ba99c466591842eff32e" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -2215,6 +2215,9 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2274,6 +2277,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2403,22 +2423,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575B4C92-A29A-4E66-B263-A9DC82CA0396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F52DDF-9E61-44E0-A23B-C90E4CA1E408}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/alder grupper.xlsx
+++ b/alder grupper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/Befolkning/befolkning 07459 og 11668/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{2A57042E-7775-4C87-B097-AE731226A286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC57BB80-FA01-4C44-BB0C-F81F11F3BC16}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{2A57042E-7775-4C87-B097-AE731226A286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C90A80A-9FC3-4A00-A263-66D6918FEC91}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{5BD91793-E4FC-450C-B54A-4317ACA116E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5BD91793-E4FC-450C-B54A-4317ACA116E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="19">
   <si>
     <t>67- 79 år</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>20-66 år</t>
+  </si>
+  <si>
+    <t>standard aldersgrupper</t>
+  </si>
+  <si>
+    <t>kommunal økonomi</t>
+  </si>
+  <si>
+    <t>aldersgruppe for videregående skoler</t>
   </si>
 </sst>
 </file>
@@ -439,13 +448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED92EC-ACBD-4A60-85A9-C16DBFEEF20C}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection sqref="A1:B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -453,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -469,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -477,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -485,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -493,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -501,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -509,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -517,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -525,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -533,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -541,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -549,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -557,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -565,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -573,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -581,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -589,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -597,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -605,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -613,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -621,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -629,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -637,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -645,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -653,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -661,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -669,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -677,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -685,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -693,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -701,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -709,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -717,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -725,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -733,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -741,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -749,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -757,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -765,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -773,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -781,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -789,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -797,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -805,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -813,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -821,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -829,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -837,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -845,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -853,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -861,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -869,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -877,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -885,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -893,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -901,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -909,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -917,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -925,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -933,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -941,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -949,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -957,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -965,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -973,7 +982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -981,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -989,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1077,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1245,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1261,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>16</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>17</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>18</v>
       </c>
@@ -1325,860 +1334,2377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BED9AC-5F9E-4F88-B56D-C8B185A24B8C}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:B109"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>22</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>24</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>29</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>30</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>31</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>32</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>33</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>34</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>35</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>36</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>37</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>38</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>39</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>40</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>41</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>42</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>43</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>44</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>45</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>46</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>47</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>48</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>50</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>52</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>53</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>54</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>58</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>60</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>61</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>62</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>63</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>64</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>65</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>66</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>67</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>68</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>69</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>70</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>71</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>72</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>73</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>74</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>75</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>76</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>77</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>78</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>79</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>80</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>81</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>82</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>83</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>84</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>85</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>86</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>87</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>88</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>89</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>90</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>91</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>92</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>93</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>94</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>95</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>96</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>97</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>98</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>99</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>100</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>101</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>102</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>103</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>104</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>105</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>16</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2196,6 +3722,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2396,15 +3931,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAFCBA7-8A0E-479D-A50D-4BCF24804021}">
   <ds:schemaRefs>
@@ -2423,13 +3949,28 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F52DDF-9E61-44E0-A23B-C90E4CA1E408}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8014FBB-235F-4AA0-B5DB-CBFECF29D279}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F52DDF-9E61-44E0-A23B-C90E4CA1E408}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/alder grupper.xlsx
+++ b/alder grupper.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{2A57042E-7775-4C87-B097-AE731226A286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C90A80A-9FC3-4A00-A263-66D6918FEC91}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{2A57042E-7775-4C87-B097-AE731226A286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87273CD1-A72F-4BE6-A901-A701FD6DE297}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5BD91793-E4FC-450C-B54A-4317ACA116E5}"/>
+    <workbookView xWindow="1332" yWindow="3384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{5BD91793-E4FC-450C-B54A-4317ACA116E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="19">
   <si>
     <t>67- 79 år</t>
   </si>
@@ -1336,8 +1337,2388 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BED9AC-5F9E-4F88-B56D-C8B185A24B8C}">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B215" sqref="A1:C215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>22</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>24</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>25</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>29</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>30</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>31</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>32</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>33</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>34</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>35</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>36</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>37</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>38</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>39</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>40</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>41</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>42</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>43</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>44</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>45</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>46</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>47</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>48</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>50</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>52</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>53</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>54</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>58</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>60</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>61</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>62</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>63</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>64</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>65</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>66</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>67</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>68</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>69</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>70</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>71</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>72</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>73</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>74</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>75</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>76</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>77</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>78</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>79</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>80</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>81</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>82</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>83</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>84</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>85</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>86</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>87</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>88</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>89</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>90</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>91</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>92</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>93</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>94</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>95</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>96</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>97</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>98</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>99</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>100</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>101</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>102</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>103</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>104</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>105</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>16</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DC5D4C-8AD9-4EF0-8C8C-EA86AA2627E7}">
+  <dimension ref="A1:C215"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3722,15 +6103,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3931,6 +6303,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAFCBA7-8A0E-479D-A50D-4BCF24804021}">
   <ds:schemaRefs>
@@ -3949,14 +6330,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8014FBB-235F-4AA0-B5DB-CBFECF29D279}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F52DDF-9E61-44E0-A23B-C90E4CA1E408}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3973,4 +6346,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8014FBB-235F-4AA0-B5DB-CBFECF29D279}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/alder grupper.xlsx
+++ b/alder grupper.xlsx
@@ -3716,8 +3716,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -3738,6 +3738,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3814,6 +3815,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3935,22 +3941,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F52DDF-9E61-44E0-A23B-C90E4CA1E408}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEA3C2C-A3B3-40A0-87B9-C330E7946F5E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/alder grupper.xlsx
+++ b/alder grupper.xlsx
@@ -3716,10 +3716,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3739,6 +3740,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3821,6 +3824,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -3927,6 +3952,10 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -3941,7 +3970,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEA3C2C-A3B3-40A0-87B9-C330E7946F5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3ACD45B-B7B6-4D2E-8F86-A599BD97600C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/alder grupper.xlsx
+++ b/alder grupper.xlsx
@@ -3716,8 +3716,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -3742,6 +3742,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3831,6 +3832,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -3970,7 +3976,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3ACD45B-B7B6-4D2E-8F86-A599BD97600C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFE95DD-2313-48A1-9B9B-F98455E8C989}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
